--- a/salesfunnel.xlsx
+++ b/salesfunnel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work and Applications\02_work\Cogniphi\gitlab\ssr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA5067E-6BBB-4114-92A3-0FC21FD4E052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A5AC2-382C-44CE-AB06-73BD046734BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,24 +70,6 @@
     <t>Monitor</t>
   </si>
   <si>
-    <t>Shanmugha Olivu</t>
-  </si>
-  <si>
-    <t>Seshagiri Sriram</t>
-  </si>
-  <si>
-    <t>Bindi Nair</t>
-  </si>
-  <si>
-    <t>Yanesh Tyagi</t>
-  </si>
-  <si>
-    <t>Jacob Binny</t>
-  </si>
-  <si>
-    <t>Rohith Raveendranath</t>
-  </si>
-  <si>
     <t>IP Sales</t>
   </si>
   <si>
@@ -116,6 +98,24 @@
   </si>
   <si>
     <t>Microsoft</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Jane Roe</t>
+  </si>
+  <si>
+    <t>Steve Gates</t>
+  </si>
+  <si>
+    <t>Wade Dwayne Smith</t>
+  </si>
+  <si>
+    <t>Alexander Dumas</t>
+  </si>
+  <si>
+    <t>Archana Thakur</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -512,13 +512,13 @@
         <v>714466</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -538,13 +538,13 @@
         <v>714466</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -564,13 +564,13 @@
         <v>714466</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -590,13 +590,13 @@
         <v>737550</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -616,13 +616,13 @@
         <v>146832</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -642,13 +642,13 @@
         <v>218895</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -668,13 +668,13 @@
         <v>218895</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -694,13 +694,13 @@
         <v>412290</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -720,13 +720,13 @@
         <v>740150</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -746,13 +746,13 @@
         <v>141962</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -772,13 +772,13 @@
         <v>163416</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -798,13 +798,13 @@
         <v>239344</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -824,13 +824,13 @@
         <v>239344</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -850,13 +850,13 @@
         <v>307599</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -876,13 +876,13 @@
         <v>688981</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -902,13 +902,13 @@
         <v>729833</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -928,13 +928,13 @@
         <v>729833</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
